--- a/PBSS5480X Motor Driver/PBSS5480X_Motor_Driver.xlsx
+++ b/PBSS5480X Motor Driver/PBSS5480X_Motor_Driver.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18067"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Kicad\DCMotorDriver-master\PBSS5480X_Motor_Driver2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eduar\OneDrive\Documents\Github\DCMotorDriver\PBSS5480X Motor Driver\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="18" documentId="11_5FF077FB5DB863F7A7F3A2E2ECEF4DEF0776A774" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{B98CCAE2-F424-4139-85D5-A4CB80DFF432}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11760"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PBSS5480X_Motor_Driver" sheetId="1" r:id="rId1"/>
@@ -45,9 +46,6 @@
     <t>Quantity</t>
   </si>
   <si>
-    <t>Reference</t>
-  </si>
-  <si>
     <t>Digikey PO Qty</t>
   </si>
   <si>
@@ -361,12 +359,15 @@
   </si>
   <si>
     <t>Unit Cost</t>
+  </si>
+  <si>
+    <t>Reference Designator</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1200,26 +1201,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.6640625" hidden="1" customWidth="1"/>
     <col min="3" max="3" width="35" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="56.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.77734375" customWidth="1"/>
+    <col min="5" max="5" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="56.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1245,39 +1248,42 @@
         <v>7</v>
       </c>
       <c r="I1" t="s">
+        <v>113</v>
+      </c>
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>15</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>16</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>17</v>
-      </c>
-      <c r="E2" t="s">
-        <v>18</v>
       </c>
       <c r="H2">
         <v>1</v>
@@ -1292,33 +1298,33 @@
         <v>20.46</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" t="s">
         <v>19</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>20</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>21</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>22</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>23</v>
-      </c>
-      <c r="G3" t="s">
-        <v>24</v>
       </c>
       <c r="H3">
         <v>8</v>
       </c>
       <c r="I3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J3">
         <v>100</v>
@@ -1327,36 +1333,36 @@
         <v>9.56</v>
       </c>
       <c r="M3" t="s">
+        <v>25</v>
+      </c>
+      <c r="N3" t="s">
         <v>26</v>
       </c>
-      <c r="N3" t="s">
+      <c r="O3" t="s">
         <v>27</v>
       </c>
-      <c r="O3" t="s">
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>29</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>30</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>31</v>
-      </c>
-      <c r="E4" t="s">
-        <v>32</v>
       </c>
       <c r="H4">
         <v>5</v>
       </c>
       <c r="I4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J4">
         <v>100</v>
@@ -1365,45 +1371,45 @@
         <v>2.89</v>
       </c>
       <c r="L4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M4">
         <v>603</v>
       </c>
       <c r="N4" t="s">
+        <v>34</v>
+      </c>
+      <c r="O4" t="s">
         <v>35</v>
       </c>
-      <c r="O4" t="s">
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>37</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" t="s">
         <v>38</v>
       </c>
-      <c r="D5" t="s">
-        <v>31</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>39</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>40</v>
-      </c>
-      <c r="G5" t="s">
-        <v>41</v>
       </c>
       <c r="H5">
         <v>17</v>
       </c>
       <c r="I5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J5">
         <v>200</v>
@@ -1412,42 +1418,42 @@
         <v>3.1</v>
       </c>
       <c r="L5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M5">
         <v>603</v>
       </c>
       <c r="N5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" t="s">
         <v>43</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" t="s">
         <v>44</v>
       </c>
-      <c r="D6" t="s">
-        <v>31</v>
-      </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>45</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>46</v>
-      </c>
-      <c r="G6" t="s">
-        <v>47</v>
       </c>
       <c r="H6">
         <v>4</v>
       </c>
       <c r="I6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J6">
         <v>50</v>
@@ -1456,45 +1462,45 @@
         <v>19.95</v>
       </c>
       <c r="L6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M6">
         <v>805</v>
       </c>
       <c r="N6" t="s">
+        <v>49</v>
+      </c>
+      <c r="O6" t="s">
         <v>50</v>
       </c>
-      <c r="O6" t="s">
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>52</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" t="s">
         <v>53</v>
       </c>
-      <c r="D7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>54</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>55</v>
-      </c>
-      <c r="G7" t="s">
-        <v>56</v>
       </c>
       <c r="H7">
         <v>4</v>
       </c>
       <c r="I7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J7">
         <v>100</v>
@@ -1503,39 +1509,39 @@
         <v>27.8</v>
       </c>
       <c r="M7" t="s">
+        <v>57</v>
+      </c>
+      <c r="N7" t="s">
         <v>58</v>
       </c>
-      <c r="N7" t="s">
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>60</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" t="s">
         <v>61</v>
       </c>
-      <c r="D8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G8" t="s">
         <v>62</v>
-      </c>
-      <c r="F8" t="s">
-        <v>23</v>
-      </c>
-      <c r="G8" t="s">
-        <v>63</v>
       </c>
       <c r="H8">
         <v>4</v>
       </c>
       <c r="I8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J8">
         <v>100</v>
@@ -1544,39 +1550,39 @@
         <v>6.42</v>
       </c>
       <c r="M8" t="s">
+        <v>64</v>
+      </c>
+      <c r="N8" t="s">
         <v>65</v>
       </c>
-      <c r="N8" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B9">
         <v>0.01</v>
       </c>
       <c r="C9" t="s">
+        <v>66</v>
+      </c>
+      <c r="D9" t="s">
         <v>67</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>68</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>69</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>70</v>
-      </c>
-      <c r="G9" t="s">
-        <v>71</v>
       </c>
       <c r="H9">
         <v>4</v>
       </c>
       <c r="I9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J9">
         <v>100</v>
@@ -1585,42 +1591,42 @@
         <v>17.12</v>
       </c>
       <c r="L9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="M9">
         <v>603</v>
       </c>
       <c r="N9" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>75</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
+        <v>67</v>
+      </c>
+      <c r="E10" t="s">
         <v>76</v>
       </c>
-      <c r="D10" t="s">
-        <v>68</v>
-      </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
+        <v>69</v>
+      </c>
+      <c r="G10" t="s">
         <v>77</v>
-      </c>
-      <c r="F10" t="s">
-        <v>70</v>
-      </c>
-      <c r="G10" t="s">
-        <v>78</v>
       </c>
       <c r="H10">
         <v>4</v>
       </c>
       <c r="I10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J10">
         <v>100</v>
@@ -1629,42 +1635,42 @@
         <v>1.92</v>
       </c>
       <c r="L10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="M10">
         <v>603</v>
       </c>
       <c r="N10" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B11" t="s">
+        <v>79</v>
+      </c>
+      <c r="C11" t="s">
         <v>80</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
+        <v>67</v>
+      </c>
+      <c r="E11" t="s">
         <v>81</v>
       </c>
-      <c r="D11" t="s">
-        <v>68</v>
-      </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
+        <v>69</v>
+      </c>
+      <c r="G11" t="s">
         <v>82</v>
-      </c>
-      <c r="F11" t="s">
-        <v>70</v>
-      </c>
-      <c r="G11" t="s">
-        <v>83</v>
       </c>
       <c r="H11">
         <v>6</v>
       </c>
       <c r="I11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J11">
         <v>100</v>
@@ -1673,36 +1679,36 @@
         <v>1.69</v>
       </c>
       <c r="L11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="M11">
         <v>603</v>
       </c>
       <c r="N11" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B12">
         <v>0</v>
       </c>
       <c r="C12" t="s">
+        <v>84</v>
+      </c>
+      <c r="D12" t="s">
+        <v>67</v>
+      </c>
+      <c r="E12" t="s">
         <v>85</v>
-      </c>
-      <c r="D12" t="s">
-        <v>68</v>
-      </c>
-      <c r="E12" t="s">
-        <v>86</v>
       </c>
       <c r="H12">
         <v>1</v>
       </c>
       <c r="I12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J12">
         <v>100</v>
@@ -1711,33 +1717,33 @@
         <v>0.77</v>
       </c>
       <c r="L12" t="s">
+        <v>72</v>
+      </c>
+      <c r="N12" t="s">
         <v>73</v>
       </c>
-      <c r="N12" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B13">
         <v>680</v>
       </c>
       <c r="C13" t="s">
+        <v>87</v>
+      </c>
+      <c r="D13" t="s">
+        <v>67</v>
+      </c>
+      <c r="E13" t="s">
         <v>88</v>
-      </c>
-      <c r="D13" t="s">
-        <v>68</v>
-      </c>
-      <c r="E13" t="s">
-        <v>89</v>
       </c>
       <c r="H13">
         <v>4</v>
       </c>
       <c r="I13" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J13">
         <v>100</v>
@@ -1746,36 +1752,36 @@
         <v>1.69</v>
       </c>
       <c r="L13" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M13">
         <v>805</v>
       </c>
       <c r="N13" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
         <v>93</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>94</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
         <v>95</v>
-      </c>
-      <c r="E14" t="s">
-        <v>96</v>
       </c>
       <c r="H14">
         <v>1</v>
       </c>
       <c r="I14" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J14">
         <v>10</v>
@@ -1784,30 +1790,30 @@
         <v>4.05</v>
       </c>
       <c r="N14" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>13</v>
-      </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
         <v>99</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
+        <v>94</v>
+      </c>
+      <c r="E15" t="s">
         <v>100</v>
-      </c>
-      <c r="D15" t="s">
-        <v>95</v>
-      </c>
-      <c r="E15" t="s">
-        <v>101</v>
       </c>
       <c r="H15">
         <v>1</v>
       </c>
       <c r="I15" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J15">
         <v>10</v>
@@ -1816,30 +1822,33 @@
         <v>2.96</v>
       </c>
       <c r="M15" t="s">
+        <v>102</v>
+      </c>
+      <c r="N15" t="s">
         <v>103</v>
       </c>
-      <c r="N15" t="s">
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
+      <c r="C16" t="s">
         <v>105</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16" t="s">
         <v>106</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E16" t="s">
         <v>107</v>
-      </c>
-      <c r="E16" t="s">
-        <v>108</v>
       </c>
       <c r="H16">
         <v>1</v>
       </c>
       <c r="I16" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J16">
         <v>10</v>
@@ -1848,33 +1857,33 @@
         <v>220</v>
       </c>
       <c r="N16" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="17" spans="10:11" x14ac:dyDescent="0.3">
+      <c r="J17" t="s">
         <v>110</v>
-      </c>
-    </row>
-    <row r="17" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J17" t="s">
-        <v>111</v>
       </c>
       <c r="K17">
         <v>8.99</v>
       </c>
     </row>
-    <row r="18" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="10:11" x14ac:dyDescent="0.3">
       <c r="J18" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="K18">
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="10:11" x14ac:dyDescent="0.3">
       <c r="K19">
         <v>355.37</v>
       </c>
     </row>
-    <row r="20" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="10:11" x14ac:dyDescent="0.3">
       <c r="J20" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="K20">
         <v>35.536999999999999</v>
